--- a/2023/Lec/Lec-09/scripts/kinetic_matrix.xlsx
+++ b/2023/Lec/Lec-09/scripts/kinetic_matrix.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vyacheslav\Documents\GitHub\SA\2023\Lec\Lec-09\scripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D2DF40-5816-4F78-A989-CB5066483665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,57 +30,6 @@
     <t>reactions</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
     <t>r1</t>
   </si>
   <si>
@@ -205,12 +160,63 @@
   </si>
   <si>
     <t>r44</t>
+  </si>
+  <si>
+    <t>nC5</t>
+  </si>
+  <si>
+    <t>iC5</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>nC6</t>
+  </si>
+  <si>
+    <t>iC6</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>nC7</t>
+  </si>
+  <si>
+    <t>iC7</t>
+  </si>
+  <si>
+    <t>N7</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>nC8</t>
+  </si>
+  <si>
+    <t>iC8</t>
+  </si>
+  <si>
+    <t>N8</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -264,10 +276,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,641 +555,644 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1228,9 +1246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1284,9 +1302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1340,9 +1358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -1396,9 +1414,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1452,9 +1470,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -1508,9 +1526,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -1564,9 +1582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1620,9 +1638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1676,9 +1694,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -1732,9 +1750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -1788,9 +1806,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -1844,9 +1862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -1900,9 +1918,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -1956,9 +1974,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2012,9 +2030,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -2068,9 +2086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2124,9 +2142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -2180,9 +2198,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -2236,9 +2254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -2292,9 +2310,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>-1</v>
@@ -2348,9 +2366,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -2404,9 +2422,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -2460,9 +2478,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -2516,9 +2534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -2572,9 +2590,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -2628,9 +2646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -2684,9 +2702,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -2740,9 +2758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -2754,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2796,9 +2814,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -2810,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2852,9 +2870,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -2866,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2908,9 +2926,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -2922,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2964,9 +2982,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -2978,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -3020,9 +3038,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -3034,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -3077,6 +3095,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:R45">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
